--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_50_no_test.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_50_no_test.xlsx
@@ -91,6 +91,9 @@
     <t>Clicks per day</t>
   </si>
   <si>
+    <t>Start of Session 3 (%)</t>
+  </si>
+  <si>
     <t>Assignments viewed</t>
   </si>
   <si>
@@ -101,9 +104,6 @@
   </si>
   <si>
     <t>Clicks per session</t>
-  </si>
-  <si>
-    <t>Start of Session 3 (%)</t>
   </si>
   <si>
     <t>Clicks on folder</t>
@@ -136,19 +136,19 @@
     <t>Start of Session 5 (%)</t>
   </si>
   <si>
+    <t>Quizzes started</t>
+  </si>
+  <si>
     <t>Files downloaded</t>
   </si>
   <si>
     <t>Assignments submitted</t>
   </si>
   <si>
-    <t>Quizzes started</t>
+    <t>Forum posts</t>
   </si>
   <si>
     <t>Submissions (% of course total)</t>
-  </si>
-  <si>
-    <t>Forum posts</t>
   </si>
 </sst>
 </file>
@@ -1003,13 +1003,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -1021,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1029,28 +1029,28 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -1061,7 +1061,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -1070,19 +1070,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -1093,7 +1093,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -1125,7 +1125,7 @@
         <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -1134,19 +1134,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>5</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -1245,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1679,7 +1679,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1807,16 +1807,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1839,16 +1839,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1871,16 +1871,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -1999,16 +1999,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2040,22 +2040,22 @@
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2072,22 +2072,22 @@
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2127,10 +2127,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -2139,19 +2139,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -2159,10 +2159,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -2174,16 +2174,16 @@
         <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -2194,7 +2194,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -2203,19 +2203,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -2264,10 +2264,10 @@
         <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -2314,15 +2314,15 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -2331,36 +2331,36 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -2383,10 +2383,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -2398,16 +2398,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>4</v>
@@ -2447,31 +2447,31 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>4</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2494,27 +2494,27 @@
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
       <c r="I27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -2543,13 +2543,13 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -2561,13 +2561,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
       <c r="I29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>3</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2607,13 +2607,13 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -2666,18 +2666,18 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -2698,18 +2698,18 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -2730,12 +2730,12 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -3013,13 +3013,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -3068,10 +3068,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -3083,7 +3083,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -3100,16 +3100,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -3150,21 +3150,21 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -3173,22 +3173,22 @@
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -3196,7 +3196,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -3228,10 +3228,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -3243,7 +3243,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
@@ -3269,13 +3269,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -3304,19 +3304,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -3324,10 +3324,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -3336,19 +3336,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -3356,31 +3356,31 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -3400,19 +3400,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>5</v>
@@ -3420,10 +3420,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -3452,7 +3452,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -3484,10 +3484,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -3516,16 +3516,16 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -3548,7 +3548,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -3612,31 +3612,31 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
       <c r="I27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>4</v>
@@ -3644,7 +3644,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3659,19 +3659,19 @@
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
       </c>
       <c r="I28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3717,7 +3717,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -3735,21 +3735,21 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -3804,7 +3804,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3945,7 +3945,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -4009,13 +4009,13 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -4036,12 +4036,12 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -4050,7 +4050,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -4068,18 +4068,18 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -4100,21 +4100,21 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -4146,7 +4146,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -4155,21 +4155,21 @@
         <v>1</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -4210,22 +4210,22 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>6</v>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4265,7 +4265,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -4306,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -4324,18 +4324,18 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -4347,13 +4347,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -4361,7 +4361,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -4373,19 +4373,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -4393,13 +4393,13 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -4420,12 +4420,12 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -4452,18 +4452,18 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -4472,16 +4472,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -4489,7 +4489,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -4498,22 +4498,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>4</v>
@@ -4521,13 +4521,13 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -4536,27 +4536,27 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -4568,16 +4568,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>3</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -4690,13 +4690,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -4713,13 +4713,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -4745,16 +4745,16 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -4804,12 +4804,12 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4841,7 +4841,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4905,7 +4905,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4969,7 +4969,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -5001,7 +5001,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
